--- a/analysis_output/moderation_results.xlsx
+++ b/analysis_output/moderation_results.xlsx
@@ -482,22 +482,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.737</v>
+        <v>2.7573</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09370000000000001</v>
+        <v>0.08890000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>29.1968</v>
+        <v>31.0211</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.5504</v>
+        <v>2.5806</v>
       </c>
       <c r="G2" t="n">
-        <v>2.9235</v>
+        <v>2.934</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -512,22 +512,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5164</v>
+        <v>0.5178</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09329999999999999</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>5.5362</v>
+        <v>5.7312</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3307</v>
+        <v>0.3382</v>
       </c>
       <c r="G3" t="n">
-        <v>0.702</v>
+        <v>0.6975</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -542,22 +542,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0389</v>
+        <v>0.0367</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0751</v>
+        <v>0.0723</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5185999999999999</v>
+        <v>0.5077</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6055</v>
+        <v>0.613</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1105</v>
+        <v>-0.107</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1883</v>
+        <v>0.1804</v>
       </c>
       <c r="H4" t="inlineStr"/>
     </row>
@@ -568,22 +568,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0516</v>
+        <v>0.0495</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0623</v>
+        <v>0.0602</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8284</v>
+        <v>0.8228</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4099</v>
+        <v>0.4129</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0723</v>
+        <v>-0.0701</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1755</v>
+        <v>0.1691</v>
       </c>
       <c r="H5" t="inlineStr"/>
     </row>
